--- a/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
+++ b/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
@@ -1274,6 +1274,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="6" min="6" width="15"/>
+    <col customWidth="1" max="7" min="7" width="15"/>
+    <col customWidth="1" max="8" min="8" width="15"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">

--- a/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
+++ b/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
@@ -1276,7 +1276,7 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="6" min="6" width="15"/>
     <col customWidth="1" max="7" min="7" width="15"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
     <col customWidth="1" max="9" min="9" width="20"/>
     <col customWidth="1" max="10" min="10" width="15"/>
   </cols>

--- a/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
+++ b/client/static/reports/lot_list/LOT_LIST_2016-12-05.xlsx
@@ -109,15 +109,33 @@
     <t xml:space="preserve">          600,000.00</t>
   </si>
   <si>
+    <t>8x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1,200,000.00</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6x5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          900,000.00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>6x5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          900,000.00</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -127,24 +145,6 @@
     <t xml:space="preserve">          960,000.00</t>
   </si>
   <si>
-    <t>8x5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        1,200,000.00</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Block 3</t>
   </si>
   <si>
@@ -373,75 +373,75 @@
     <t xml:space="preserve">          270,000.00</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Po, Exequil</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          180,000.00</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>3x4.5x4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          540,000.00</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           25,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          225,000.00</t>
+  </si>
+  <si>
+    <t>Lim, Maria Paz</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
     <t>3x1.5</t>
   </si>
   <si>
     <t xml:space="preserve">          135,000.00</t>
   </si>
   <si>
-    <t>3x4.5x4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          540,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           25,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          225,000.00</t>
-  </si>
-  <si>
-    <t>Lim, Maria Paz</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Po, Exequil</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>3x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          180,000.00</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
     <t>A13</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>5x5.36x5.03</t>
   </si>
   <si>
@@ -772,6 +772,36 @@
     <t xml:space="preserve">       18,630,000.00</t>
   </si>
   <si>
+    <t>5x13.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2,010,000.00</t>
+  </si>
+  <si>
+    <t>5x12.87</t>
+  </si>
+  <si>
+    <t>5x12.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1,890,000.00</t>
+  </si>
+  <si>
+    <t>5x12.09</t>
+  </si>
+  <si>
+    <t>5x11.71</t>
+  </si>
+  <si>
+    <t>5x11.32</t>
+  </si>
+  <si>
+    <t>5x10.94</t>
+  </si>
+  <si>
+    <t>5x10.55</t>
+  </si>
+  <si>
     <t>5x10.16</t>
   </si>
   <si>
@@ -820,12 +850,6 @@
     <t>5x7.71</t>
   </si>
   <si>
-    <t>5x13.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        2,010,000.00</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -866,30 +890,6 @@
   </si>
   <si>
     <t>5x8.34</t>
-  </si>
-  <si>
-    <t>5x12.87</t>
-  </si>
-  <si>
-    <t>5x12.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        1,890,000.00</t>
-  </si>
-  <si>
-    <t>5x12.09</t>
-  </si>
-  <si>
-    <t>5x11.71</t>
-  </si>
-  <si>
-    <t>5x11.32</t>
-  </si>
-  <si>
-    <t>5x10.94</t>
-  </si>
-  <si>
-    <t>5x10.55</t>
   </si>
 </sst>
 </file>
@@ -1647,19 +1647,19 @@
         <v>28</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H38" s="5" t="n"/>
       <c r="I38" s="5" t="s"/>
@@ -1671,19 +1671,19 @@
         <v>28</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E39" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H39" s="5" t="n"/>
       <c r="I39" s="5" t="s"/>
@@ -1695,10 +1695,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>40</v>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H40" s="5" t="n"/>
       <c r="I40" s="5" t="s"/>
@@ -1719,10 +1719,10 @@
         <v>28</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>40</v>
@@ -1731,7 +1731,7 @@
         <v>21</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41" s="5" t="n"/>
       <c r="I41" s="5" t="s"/>
@@ -1743,19 +1743,19 @@
         <v>28</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42" s="5" t="n"/>
       <c r="I42" s="5" t="s"/>
@@ -1767,19 +1767,19 @@
         <v>28</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43" s="5" t="n"/>
       <c r="I43" s="5" t="s"/>
@@ -1791,10 +1791,10 @@
         <v>28</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>30</v>
@@ -1803,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H44" s="5" t="n"/>
       <c r="I44" s="5" t="s"/>
@@ -1815,10 +1815,10 @@
         <v>28</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>30</v>
@@ -1827,7 +1827,7 @@
         <v>21</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H45" s="5" t="n"/>
       <c r="I45" s="5" t="s"/>
@@ -1839,19 +1839,19 @@
         <v>28</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H46" s="5" t="n"/>
       <c r="I46" s="5" t="s"/>
@@ -1967,7 +1967,7 @@
         <v>26</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>40</v>
@@ -1976,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H52" s="5" t="n"/>
       <c r="I52" s="5" t="s"/>
@@ -2012,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>44</v>
@@ -2036,7 +2036,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>44</v>
@@ -2060,7 +2060,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>44</v>
@@ -2084,7 +2084,7 @@
         <v>43</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>46</v>
@@ -2233,7 +2233,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>44</v>
@@ -2257,7 +2257,7 @@
         <v>48</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>44</v>
@@ -2281,7 +2281,7 @@
         <v>48</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>44</v>
@@ -2305,7 +2305,7 @@
         <v>48</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>49</v>
@@ -2454,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>44</v>
@@ -2478,7 +2478,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>44</v>
@@ -2502,7 +2502,7 @@
         <v>50</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>44</v>
@@ -2526,7 +2526,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>51</v>
@@ -2675,7 +2675,7 @@
         <v>53</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>44</v>
@@ -2699,7 +2699,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>44</v>
@@ -2723,7 +2723,7 @@
         <v>53</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>44</v>
@@ -2747,7 +2747,7 @@
         <v>53</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>54</v>
@@ -2779,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E89" s="5" t="n">
         <v>30</v>
@@ -2788,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89" s="5" t="n"/>
       <c r="I89" s="5" t="s"/>
@@ -2803,7 +2803,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E90" s="5" t="n">
         <v>30</v>
@@ -2812,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90" s="5" t="n"/>
       <c r="I90" s="5" t="s"/>
@@ -2827,7 +2827,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E91" s="5" t="n">
         <v>30</v>
@@ -2836,7 +2836,7 @@
         <v>21</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91" s="5" t="n"/>
       <c r="I91" s="5" t="s"/>
@@ -2851,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E92" s="5" t="n">
         <v>30</v>
@@ -2860,7 +2860,7 @@
         <v>21</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" s="5" t="n"/>
       <c r="I92" s="5" t="s"/>
@@ -2875,7 +2875,7 @@
         <v>27</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E93" s="5" t="n">
         <v>30</v>
@@ -2884,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H93" s="5" t="n"/>
       <c r="I93" s="5" t="s"/>
@@ -2896,10 +2896,10 @@
         <v>55</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E94" s="5" t="n">
         <v>30</v>
@@ -2908,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H94" s="5" t="n"/>
       <c r="I94" s="5" t="s"/>
@@ -2920,10 +2920,10 @@
         <v>55</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E95" s="5" t="n">
         <v>30</v>
@@ -2932,7 +2932,7 @@
         <v>21</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95" s="5" t="n"/>
       <c r="I95" s="5" t="s"/>
@@ -2944,10 +2944,10 @@
         <v>55</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E96" s="5" t="n">
         <v>30</v>
@@ -2956,7 +2956,7 @@
         <v>21</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H96" s="5" t="n"/>
       <c r="I96" s="5" t="s"/>
@@ -2968,7 +2968,7 @@
         <v>55</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>56</v>
@@ -3024,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E100" s="5" t="n">
         <v>30</v>
@@ -3033,7 +3033,7 @@
         <v>21</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100" s="5" t="n"/>
       <c r="I100" s="5" t="s"/>
@@ -3048,7 +3048,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E101" s="5" t="n">
         <v>30</v>
@@ -3057,7 +3057,7 @@
         <v>21</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H101" s="5" t="n"/>
       <c r="I101" s="5" t="s"/>
@@ -3072,7 +3072,7 @@
         <v>26</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E102" s="5" t="n">
         <v>30</v>
@@ -3081,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H102" s="5" t="n"/>
       <c r="I102" s="5" t="s"/>
@@ -3221,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E109" s="5" t="n">
         <v>30</v>
@@ -3230,7 +3230,7 @@
         <v>21</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H109" s="5" t="n"/>
       <c r="I109" s="5" t="s"/>
@@ -3242,10 +3242,10 @@
         <v>63</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E110" s="5" t="n">
         <v>30</v>
@@ -3254,7 +3254,7 @@
         <v>21</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H110" s="5" t="n"/>
       <c r="I110" s="5" t="s"/>
@@ -3266,10 +3266,10 @@
         <v>63</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E111" s="5" t="n">
         <v>30</v>
@@ -3278,7 +3278,7 @@
         <v>21</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H111" s="5" t="n"/>
       <c r="I111" s="5" t="s"/>
@@ -3290,10 +3290,10 @@
         <v>63</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E112" s="5" t="n">
         <v>30</v>
@@ -3302,7 +3302,7 @@
         <v>21</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H112" s="5" t="n"/>
       <c r="I112" s="5" t="s"/>
@@ -3314,7 +3314,7 @@
         <v>63</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>64</v>
@@ -3346,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E115" s="5" t="n">
         <v>30</v>
@@ -3355,7 +3355,7 @@
         <v>21</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H115" s="5" t="n"/>
       <c r="I115" s="5" t="s"/>
@@ -3370,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E116" s="5" t="n">
         <v>30</v>
@@ -3379,7 +3379,7 @@
         <v>21</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116" s="5" t="n"/>
       <c r="I116" s="5" t="s"/>
@@ -3394,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E117" s="5" t="n">
         <v>30</v>
@@ -3403,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H117" s="5" t="n"/>
       <c r="I117" s="5" t="s"/>
@@ -3418,7 +3418,7 @@
         <v>26</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E118" s="5" t="n">
         <v>30</v>
@@ -3427,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H118" s="5" t="n"/>
       <c r="I118" s="5" t="s"/>
@@ -3442,7 +3442,7 @@
         <v>27</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E119" s="5" t="n">
         <v>30</v>
@@ -3451,7 +3451,7 @@
         <v>21</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H119" s="5" t="n"/>
       <c r="I119" s="5" t="s"/>
@@ -3463,10 +3463,10 @@
         <v>66</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E120" s="5" t="n">
         <v>30</v>
@@ -3475,7 +3475,7 @@
         <v>21</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H120" s="5" t="n"/>
       <c r="I120" s="5" t="s"/>
@@ -3487,10 +3487,10 @@
         <v>66</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E121" s="5" t="n">
         <v>30</v>
@@ -3499,7 +3499,7 @@
         <v>21</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H121" s="5" t="n"/>
       <c r="I121" s="5" t="s"/>
@@ -3511,7 +3511,7 @@
         <v>66</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>67</v>
@@ -3543,7 +3543,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E124" s="5" t="n">
         <v>30</v>
@@ -3552,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H124" s="5" t="n"/>
       <c r="I124" s="5" t="s"/>
@@ -3567,7 +3567,7 @@
         <v>23</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E125" s="5" t="n">
         <v>30</v>
@@ -3576,7 +3576,7 @@
         <v>21</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H125" s="5" t="n"/>
       <c r="I125" s="5" t="s"/>
@@ -3591,7 +3591,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E126" s="5" t="n">
         <v>30</v>
@@ -3600,7 +3600,7 @@
         <v>21</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H126" s="5" t="n"/>
       <c r="I126" s="5" t="s"/>
@@ -3615,7 +3615,7 @@
         <v>26</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E127" s="5" t="n">
         <v>30</v>
@@ -3624,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H127" s="5" t="n"/>
       <c r="I127" s="5" t="s"/>
@@ -3639,7 +3639,7 @@
         <v>27</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E128" s="5" t="n">
         <v>30</v>
@@ -3648,7 +3648,7 @@
         <v>21</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H128" s="5" t="n"/>
       <c r="I128" s="5" t="s"/>
@@ -3660,10 +3660,10 @@
         <v>69</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E129" s="5" t="n">
         <v>30</v>
@@ -3672,7 +3672,7 @@
         <v>21</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H129" s="5" t="n"/>
       <c r="I129" s="5" t="s"/>
@@ -3684,10 +3684,10 @@
         <v>69</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E130" s="5" t="n">
         <v>30</v>
@@ -3696,7 +3696,7 @@
         <v>21</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H130" s="5" t="n"/>
       <c r="I130" s="5" t="s"/>
@@ -3708,7 +3708,7 @@
         <v>69</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>70</v>
@@ -3857,7 +3857,7 @@
         <v>72</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>59</v>
@@ -3881,7 +3881,7 @@
         <v>72</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>59</v>
@@ -3905,7 +3905,7 @@
         <v>72</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>59</v>
@@ -4179,7 +4179,7 @@
         <v>74</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>59</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>59</v>
@@ -4227,7 +4227,7 @@
         <v>74</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>59</v>
@@ -4251,7 +4251,7 @@
         <v>74</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>77</v>
@@ -4307,7 +4307,7 @@
         <v>23</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E159" s="5" t="n">
         <v>30</v>
@@ -4316,7 +4316,7 @@
         <v>21</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H159" s="5" t="n"/>
       <c r="I159" s="5" t="s"/>
@@ -4331,7 +4331,7 @@
         <v>25</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E160" s="5" t="n">
         <v>30</v>
@@ -4340,7 +4340,7 @@
         <v>21</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H160" s="5" t="n"/>
       <c r="I160" s="5" t="s"/>
@@ -4355,7 +4355,7 @@
         <v>26</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E161" s="5" t="n">
         <v>30</v>
@@ -4364,7 +4364,7 @@
         <v>21</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H161" s="5" t="n"/>
       <c r="I161" s="5" t="s"/>
@@ -4379,7 +4379,7 @@
         <v>27</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E162" s="5" t="n">
         <v>30</v>
@@ -4388,7 +4388,7 @@
         <v>21</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H162" s="5" t="n"/>
       <c r="I162" s="5" t="s"/>
@@ -4400,10 +4400,10 @@
         <v>79</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E163" s="5" t="n">
         <v>30</v>
@@ -4412,7 +4412,7 @@
         <v>21</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H163" s="5" t="n"/>
       <c r="I163" s="5" t="s"/>
@@ -4424,10 +4424,10 @@
         <v>79</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E164" s="5" t="n">
         <v>30</v>
@@ -4436,7 +4436,7 @@
         <v>21</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H164" s="5" t="n"/>
       <c r="I164" s="5" t="s"/>
@@ -4448,10 +4448,10 @@
         <v>79</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E165" s="5" t="n">
         <v>30</v>
@@ -4460,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H165" s="5" t="n"/>
       <c r="I165" s="5" t="s"/>
@@ -4472,7 +4472,7 @@
         <v>79</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>81</v>
@@ -4621,7 +4621,7 @@
         <v>83</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>44</v>
@@ -4645,7 +4645,7 @@
         <v>83</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>44</v>
@@ -4669,7 +4669,7 @@
         <v>83</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>44</v>
@@ -4693,7 +4693,7 @@
         <v>83</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>86</v>
@@ -4842,7 +4842,7 @@
         <v>87</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>44</v>
@@ -4866,7 +4866,7 @@
         <v>87</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>44</v>
@@ -4890,7 +4890,7 @@
         <v>87</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>44</v>
@@ -4914,7 +4914,7 @@
         <v>87</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>90</v>
@@ -5063,7 +5063,7 @@
         <v>92</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>44</v>
@@ -5087,7 +5087,7 @@
         <v>92</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>44</v>
@@ -5111,7 +5111,7 @@
         <v>92</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>44</v>
@@ -5135,7 +5135,7 @@
         <v>92</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>94</v>
@@ -5147,7 +5147,7 @@
         <v>21</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H196" s="5" t="n"/>
       <c r="I196" s="5" t="s"/>
@@ -5284,7 +5284,7 @@
         <v>95</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>44</v>
@@ -5308,7 +5308,7 @@
         <v>95</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>44</v>
@@ -5332,7 +5332,7 @@
         <v>95</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>44</v>
@@ -5356,7 +5356,7 @@
         <v>95</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>97</v>
@@ -5412,7 +5412,7 @@
         <v>23</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E209" s="5" t="n">
         <v>30</v>
@@ -5421,7 +5421,7 @@
         <v>21</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H209" s="5" t="n"/>
       <c r="I209" s="5" t="s"/>
@@ -5436,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E210" s="5" t="n">
         <v>30</v>
@@ -5445,7 +5445,7 @@
         <v>21</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H210" s="5" t="n"/>
       <c r="I210" s="5" t="s"/>
@@ -5460,7 +5460,7 @@
         <v>26</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E211" s="5" t="n">
         <v>30</v>
@@ -5469,7 +5469,7 @@
         <v>21</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H211" s="5" t="n"/>
       <c r="I211" s="5" t="s"/>
@@ -5484,7 +5484,7 @@
         <v>27</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E212" s="5" t="n">
         <v>30</v>
@@ -5493,7 +5493,7 @@
         <v>21</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H212" s="5" t="n"/>
       <c r="I212" s="5" t="s"/>
@@ -5505,10 +5505,10 @@
         <v>99</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E213" s="5" t="n">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         <v>21</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H213" s="5" t="n"/>
       <c r="I213" s="5" t="s"/>
@@ -5529,10 +5529,10 @@
         <v>99</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E214" s="5" t="n">
         <v>30</v>
@@ -5541,7 +5541,7 @@
         <v>21</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H214" s="5" t="n"/>
       <c r="I214" s="5" t="s"/>
@@ -5553,7 +5553,7 @@
         <v>99</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>101</v>
@@ -5609,7 +5609,7 @@
         <v>23</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E218" s="5" t="n">
         <v>30</v>
@@ -5618,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H218" s="5" t="n"/>
       <c r="I218" s="5" t="s"/>
@@ -5633,7 +5633,7 @@
         <v>25</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E219" s="5" t="n">
         <v>30</v>
@@ -5642,7 +5642,7 @@
         <v>21</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H219" s="5" t="n"/>
       <c r="I219" s="5" t="s"/>
@@ -5657,7 +5657,7 @@
         <v>26</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E220" s="5" t="n">
         <v>30</v>
@@ -5666,7 +5666,7 @@
         <v>21</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H220" s="5" t="n"/>
       <c r="I220" s="5" t="s"/>
@@ -5681,7 +5681,7 @@
         <v>27</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E221" s="5" t="n">
         <v>30</v>
@@ -5690,7 +5690,7 @@
         <v>21</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H221" s="5" t="n"/>
       <c r="I221" s="5" t="s"/>
@@ -5702,10 +5702,10 @@
         <v>102</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E222" s="5" t="n">
         <v>30</v>
@@ -5714,7 +5714,7 @@
         <v>21</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H222" s="5" t="n"/>
       <c r="I222" s="5" t="s"/>
@@ -5726,7 +5726,7 @@
         <v>102</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>104</v>
@@ -5782,7 +5782,7 @@
         <v>23</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E226" s="5" t="n">
         <v>30</v>
@@ -5791,7 +5791,7 @@
         <v>21</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H226" s="5" t="n"/>
       <c r="I226" s="5" t="s"/>
@@ -5806,7 +5806,7 @@
         <v>25</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E227" s="5" t="n">
         <v>30</v>
@@ -5815,7 +5815,7 @@
         <v>21</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H227" s="5" t="n"/>
       <c r="I227" s="5" t="s"/>
@@ -5830,7 +5830,7 @@
         <v>26</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E228" s="5" t="n">
         <v>30</v>
@@ -5839,7 +5839,7 @@
         <v>21</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H228" s="5" t="n"/>
       <c r="I228" s="5" t="s"/>
@@ -5854,7 +5854,7 @@
         <v>27</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E229" s="5" t="n">
         <v>30</v>
@@ -5863,7 +5863,7 @@
         <v>21</v>
       </c>
       <c r="G229" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H229" s="5" t="n"/>
       <c r="I229" s="5" t="s"/>
@@ -5875,7 +5875,7 @@
         <v>105</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>107</v>
@@ -5931,7 +5931,7 @@
         <v>23</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E233" s="5" t="n">
         <v>30</v>
@@ -5940,7 +5940,7 @@
         <v>21</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H233" s="5" t="n"/>
       <c r="I233" s="5" t="s"/>
@@ -5955,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E234" s="5" t="n">
         <v>30</v>
@@ -5964,7 +5964,7 @@
         <v>21</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H234" s="5" t="n"/>
       <c r="I234" s="5" t="s"/>
@@ -6125,7 +6125,7 @@
         <v>116</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>117</v>
@@ -6140,8 +6140,12 @@
         <v>118</v>
       </c>
       <c r="H249" s="5" t="n"/>
-      <c r="I249" s="5" t="s"/>
-      <c r="J249" s="5" t="n"/>
+      <c r="I249" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J249" s="6" t="n">
+        <v>35181</v>
+      </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s"/>
@@ -6149,19 +6153,19 @@
         <v>116</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E250" s="5" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H250" s="5" t="n"/>
       <c r="I250" s="5" t="s"/>
@@ -6197,19 +6201,19 @@
         <v>116</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E252" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H252" s="5" t="n"/>
       <c r="I252" s="5" t="s"/>
@@ -6221,7 +6225,7 @@
         <v>116</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>117</v>
@@ -6245,19 +6249,19 @@
         <v>116</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E254" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H254" s="5" t="n"/>
       <c r="I254" s="5" t="s"/>
@@ -6269,7 +6273,7 @@
         <v>116</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>117</v>
@@ -6293,19 +6297,19 @@
         <v>116</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E256" s="5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H256" s="5" t="n"/>
       <c r="I256" s="5" t="s"/>
@@ -6317,19 +6321,19 @@
         <v>116</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E257" s="5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H257" s="5" t="n"/>
       <c r="I257" s="5" t="s"/>
@@ -6341,27 +6345,23 @@
         <v>116</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E258" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H258" s="5" t="n"/>
-      <c r="I258" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J258" s="6" t="n">
-        <v>42312</v>
-      </c>
+      <c r="I258" s="5" t="s"/>
+      <c r="J258" s="5" t="n"/>
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s"/>
@@ -6369,7 +6369,7 @@
         <v>116</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>117</v>
@@ -6384,12 +6384,8 @@
         <v>118</v>
       </c>
       <c r="H259" s="5" t="n"/>
-      <c r="I259" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J259" s="6" t="n">
-        <v>35181</v>
-      </c>
+      <c r="I259" s="5" t="s"/>
+      <c r="J259" s="5" t="n"/>
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s"/>
@@ -6400,16 +6396,16 @@
         <v>128</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E260" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H260" s="5" t="n"/>
       <c r="I260" s="5" t="s"/>
@@ -6421,19 +6417,19 @@
         <v>116</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E261" s="5" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H261" s="5" t="n"/>
       <c r="I261" s="5" t="s"/>
@@ -6445,7 +6441,7 @@
         <v>116</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>117</v>
@@ -6469,13 +6465,13 @@
         <v>116</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E263" s="5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>21</v>
@@ -6493,19 +6489,19 @@
         <v>116</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E264" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H264" s="5" t="n"/>
       <c r="I264" s="5" t="s"/>
@@ -6517,23 +6513,27 @@
         <v>116</v>
       </c>
       <c r="C265" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E265" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H265" s="5" t="n"/>
+      <c r="I265" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D265" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E265" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F265" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G265" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H265" s="5" t="n"/>
-      <c r="I265" s="5" t="s"/>
-      <c r="J265" s="5" t="n"/>
+      <c r="J265" s="6" t="n">
+        <v>42312</v>
+      </c>
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s"/>
@@ -6544,7 +6544,7 @@
         <v>136</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E266" s="5" t="n">
         <v>6</v>
@@ -6553,7 +6553,7 @@
         <v>21</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H266" s="5" t="n"/>
       <c r="I266" s="5" t="s"/>
@@ -6565,19 +6565,19 @@
         <v>116</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E267" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H267" s="5" t="n"/>
       <c r="I267" s="5" t="s"/>
@@ -6589,19 +6589,19 @@
         <v>116</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E268" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H268" s="5" t="n"/>
       <c r="I268" s="5" t="s"/>
@@ -6613,19 +6613,19 @@
         <v>116</v>
       </c>
       <c r="C269" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E269" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G269" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D269" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E269" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F269" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="H269" s="5" t="n"/>
       <c r="I269" s="5" t="s"/>
@@ -6664,7 +6664,7 @@
         <v>141</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E271" s="5" t="n">
         <v>6</v>
@@ -6673,7 +6673,7 @@
         <v>21</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H271" s="5" t="n"/>
       <c r="I271" s="5" t="s"/>
@@ -6810,7 +6810,7 @@
         <v>28</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>59</v>
@@ -6834,7 +6834,7 @@
         <v>28</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>144</v>
@@ -6983,7 +6983,7 @@
         <v>145</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>59</v>
@@ -7007,7 +7007,7 @@
         <v>145</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>144</v>
@@ -7048,7 +7048,7 @@
         <v>21</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H289" s="5" t="n"/>
       <c r="I289" s="5" t="s"/>
@@ -7156,7 +7156,7 @@
         <v>48</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>59</v>
@@ -7180,7 +7180,7 @@
         <v>48</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>144</v>
@@ -7221,7 +7221,7 @@
         <v>21</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H297" s="5" t="n"/>
       <c r="I297" s="5" t="s"/>
@@ -7329,7 +7329,7 @@
         <v>50</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>59</v>
@@ -7353,7 +7353,7 @@
         <v>50</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>144</v>
@@ -7502,7 +7502,7 @@
         <v>53</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>59</v>
@@ -7526,7 +7526,7 @@
         <v>53</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>150</v>
@@ -7675,7 +7675,7 @@
         <v>55</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>59</v>
@@ -7699,7 +7699,7 @@
         <v>55</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>152</v>
@@ -7752,7 +7752,7 @@
         <v>58</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>154</v>
@@ -7776,19 +7776,19 @@
         <v>58</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E323" s="5" t="n">
-        <v>35</v>
+        <v>12.5</v>
       </c>
       <c r="F323" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="H323" s="5" t="n"/>
       <c r="I323" s="5" t="s"/>
@@ -7800,7 +7800,7 @@
         <v>58</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>154</v>
@@ -7824,7 +7824,7 @@
         <v>58</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>154</v>
@@ -7848,7 +7848,7 @@
         <v>58</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>154</v>
@@ -7872,7 +7872,7 @@
         <v>58</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>154</v>
@@ -7896,7 +7896,7 @@
         <v>58</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>154</v>
@@ -7920,7 +7920,7 @@
         <v>58</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>154</v>
@@ -7944,7 +7944,7 @@
         <v>58</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>154</v>
@@ -7968,19 +7968,19 @@
         <v>58</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E331" s="5" t="n">
-        <v>12.5</v>
+        <v>35</v>
       </c>
       <c r="F331" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="H331" s="5" t="n"/>
       <c r="I331" s="5" t="s"/>
@@ -8021,19 +8021,19 @@
         <v>63</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="E334" s="5" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="H334" s="5" t="n"/>
       <c r="I334" s="5" t="s"/>
@@ -8045,7 +8045,7 @@
         <v>63</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D335" s="5" t="s">
         <v>154</v>
@@ -8069,7 +8069,7 @@
         <v>63</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>154</v>
@@ -8093,7 +8093,7 @@
         <v>63</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>154</v>
@@ -8117,7 +8117,7 @@
         <v>63</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>154</v>
@@ -8141,7 +8141,7 @@
         <v>63</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>154</v>
@@ -8165,7 +8165,7 @@
         <v>63</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>154</v>
@@ -8189,7 +8189,7 @@
         <v>63</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>154</v>
@@ -8213,19 +8213,19 @@
         <v>63</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="E342" s="5" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F342" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="H342" s="5" t="n"/>
       <c r="I342" s="5" t="s"/>
@@ -8362,7 +8362,7 @@
         <v>66</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>154</v>
@@ -8386,7 +8386,7 @@
         <v>66</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>154</v>
@@ -8410,7 +8410,7 @@
         <v>66</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>59</v>
@@ -8559,7 +8559,7 @@
         <v>69</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D358" s="5" t="s">
         <v>154</v>
@@ -8583,7 +8583,7 @@
         <v>69</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>59</v>
@@ -8944,19 +8944,19 @@
         <v>83</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E378" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F378" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H378" s="5" t="n"/>
       <c r="I378" s="5" t="s"/>
@@ -8968,7 +8968,7 @@
         <v>83</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>164</v>
@@ -8992,7 +8992,7 @@
         <v>83</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>164</v>
@@ -9016,7 +9016,7 @@
         <v>83</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>164</v>
@@ -9040,7 +9040,7 @@
         <v>83</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>164</v>
@@ -9064,7 +9064,7 @@
         <v>83</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>164</v>
@@ -9088,7 +9088,7 @@
         <v>83</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>164</v>
@@ -9112,7 +9112,7 @@
         <v>83</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>164</v>
@@ -9136,7 +9136,7 @@
         <v>83</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>164</v>
@@ -9160,19 +9160,19 @@
         <v>83</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E387" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F387" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H387" s="5" t="n"/>
       <c r="I387" s="5" t="s"/>
@@ -9184,10 +9184,10 @@
         <v>83</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E388" s="5" t="n">
         <v>4.5</v>
@@ -9196,7 +9196,7 @@
         <v>21</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H388" s="5" t="n"/>
       <c r="I388" s="5" t="s"/>
@@ -9237,19 +9237,19 @@
         <v>87</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E391" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F391" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H391" s="5" t="n"/>
       <c r="I391" s="5" t="s"/>
@@ -9261,7 +9261,7 @@
         <v>87</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>164</v>
@@ -9285,7 +9285,7 @@
         <v>87</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>164</v>
@@ -9309,7 +9309,7 @@
         <v>87</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>164</v>
@@ -9333,7 +9333,7 @@
         <v>87</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>164</v>
@@ -9357,7 +9357,7 @@
         <v>87</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>164</v>
@@ -9381,7 +9381,7 @@
         <v>87</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>164</v>
@@ -9405,19 +9405,19 @@
         <v>87</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E398" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F398" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G398" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H398" s="5" t="n"/>
       <c r="I398" s="5" t="s"/>
@@ -9429,10 +9429,10 @@
         <v>87</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E399" s="5" t="n">
         <v>4.5</v>
@@ -9441,7 +9441,7 @@
         <v>21</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H399" s="5" t="n"/>
       <c r="I399" s="5" t="s"/>
@@ -9482,19 +9482,19 @@
         <v>92</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E402" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F402" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H402" s="5" t="n"/>
       <c r="I402" s="5" t="s"/>
@@ -9506,7 +9506,7 @@
         <v>92</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>164</v>
@@ -9530,7 +9530,7 @@
         <v>92</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>164</v>
@@ -9554,7 +9554,7 @@
         <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>164</v>
@@ -9578,7 +9578,7 @@
         <v>92</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>164</v>
@@ -9602,7 +9602,7 @@
         <v>92</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>164</v>
@@ -9626,7 +9626,7 @@
         <v>92</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>164</v>
@@ -9650,19 +9650,19 @@
         <v>92</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E409" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F409" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H409" s="5" t="n"/>
       <c r="I409" s="5" t="s"/>
@@ -9674,10 +9674,10 @@
         <v>92</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E410" s="5" t="n">
         <v>4.5</v>
@@ -9686,7 +9686,7 @@
         <v>21</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H410" s="5" t="n"/>
       <c r="I410" s="5" t="s"/>
@@ -9727,19 +9727,19 @@
         <v>95</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E413" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H413" s="5" t="n"/>
       <c r="I413" s="5" t="s"/>
@@ -9751,19 +9751,19 @@
         <v>95</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E414" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F414" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H414" s="5" t="n"/>
       <c r="I414" s="5" t="s"/>
@@ -9775,19 +9775,19 @@
         <v>95</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E415" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H415" s="5" t="n"/>
       <c r="I415" s="5" t="s"/>
@@ -9799,7 +9799,7 @@
         <v>95</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>164</v>
@@ -9823,7 +9823,7 @@
         <v>95</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>164</v>
@@ -9847,7 +9847,7 @@
         <v>95</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>164</v>
@@ -9871,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>164</v>
@@ -9895,19 +9895,19 @@
         <v>95</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E420" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G420" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H420" s="5" t="n"/>
       <c r="I420" s="5" t="s"/>
@@ -9919,19 +9919,19 @@
         <v>95</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E421" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G421" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H421" s="5" t="n"/>
       <c r="I421" s="5" t="s"/>
@@ -9943,19 +9943,19 @@
         <v>95</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E422" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F422" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G422" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H422" s="5" t="n"/>
       <c r="I422" s="5" t="s"/>
@@ -9967,10 +9967,10 @@
         <v>95</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E423" s="5" t="n">
         <v>4.5</v>
@@ -9979,7 +9979,7 @@
         <v>21</v>
       </c>
       <c r="G423" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H423" s="5" t="n"/>
       <c r="I423" s="5" t="s"/>
@@ -10020,19 +10020,19 @@
         <v>99</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E426" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F426" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G426" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H426" s="5" t="n"/>
       <c r="I426" s="5" t="s"/>
@@ -10044,7 +10044,7 @@
         <v>99</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>164</v>
@@ -10068,7 +10068,7 @@
         <v>99</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>164</v>
@@ -10092,7 +10092,7 @@
         <v>99</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>164</v>
@@ -10116,7 +10116,7 @@
         <v>99</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>164</v>
@@ -10140,7 +10140,7 @@
         <v>99</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>164</v>
@@ -10164,7 +10164,7 @@
         <v>99</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>164</v>
@@ -10188,7 +10188,7 @@
         <v>99</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>164</v>
@@ -10212,19 +10212,19 @@
         <v>99</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E434" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F434" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H434" s="5" t="n"/>
       <c r="I434" s="5" t="s"/>
@@ -10236,10 +10236,10 @@
         <v>99</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E435" s="5" t="n">
         <v>4.5</v>
@@ -10248,7 +10248,7 @@
         <v>21</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H435" s="5" t="n"/>
       <c r="I435" s="5" t="s"/>
@@ -10277,7 +10277,7 @@
         <v>21</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H437" s="5" t="n"/>
       <c r="I437" s="5" t="s"/>
@@ -10289,19 +10289,19 @@
         <v>102</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E438" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F438" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H438" s="5" t="n"/>
       <c r="I438" s="5" t="s"/>
@@ -10313,19 +10313,19 @@
         <v>102</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E439" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H439" s="5" t="n"/>
       <c r="I439" s="5" t="s"/>
@@ -10337,7 +10337,7 @@
         <v>102</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>164</v>
@@ -10361,7 +10361,7 @@
         <v>102</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>164</v>
@@ -10385,19 +10385,19 @@
         <v>102</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E442" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H442" s="5" t="n"/>
       <c r="I442" s="5" t="s"/>
@@ -10409,19 +10409,19 @@
         <v>102</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E443" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F443" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H443" s="5" t="n"/>
       <c r="I443" s="5" t="s"/>
@@ -10433,10 +10433,10 @@
         <v>102</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E444" s="5" t="n">
         <v>4.5</v>
@@ -10445,7 +10445,7 @@
         <v>21</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H444" s="5" t="n"/>
       <c r="I444" s="5" t="s"/>
@@ -10457,10 +10457,10 @@
         <v>102</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E445" s="5" t="n">
         <v>4.5</v>
@@ -10469,7 +10469,7 @@
         <v>21</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H445" s="5" t="n"/>
       <c r="I445" s="5" t="s"/>
@@ -10481,10 +10481,10 @@
         <v>102</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E446" s="5" t="n">
         <v>4.5</v>
@@ -10493,7 +10493,7 @@
         <v>21</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H446" s="5" t="n"/>
       <c r="I446" s="5" t="s"/>
@@ -10505,10 +10505,10 @@
         <v>102</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E447" s="5" t="n">
         <v>4.5</v>
@@ -10517,7 +10517,7 @@
         <v>21</v>
       </c>
       <c r="G447" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H447" s="5" t="n"/>
       <c r="I447" s="5" t="s"/>
@@ -10558,19 +10558,19 @@
         <v>105</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E450" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F450" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G450" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H450" s="5" t="n"/>
       <c r="I450" s="5" t="s"/>
@@ -10582,19 +10582,19 @@
         <v>105</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E451" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F451" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G451" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H451" s="5" t="n"/>
       <c r="I451" s="5" t="s"/>
@@ -10606,7 +10606,7 @@
         <v>105</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>164</v>
@@ -10630,7 +10630,7 @@
         <v>105</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>164</v>
@@ -10654,19 +10654,19 @@
         <v>105</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E454" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G454" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H454" s="5" t="n"/>
       <c r="I454" s="5" t="s"/>
@@ -10678,19 +10678,19 @@
         <v>105</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E455" s="5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F455" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G455" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H455" s="5" t="n"/>
       <c r="I455" s="5" t="s"/>
@@ -10702,19 +10702,19 @@
         <v>105</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E456" s="5" t="n">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G456" s="5" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="H456" s="5" t="n"/>
       <c r="I456" s="5" t="s"/>
@@ -10726,19 +10726,19 @@
         <v>105</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E457" s="5" t="n">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="F457" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G457" s="5" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="H457" s="5" t="n"/>
       <c r="I457" s="5" t="s"/>
@@ -10750,10 +10750,10 @@
         <v>105</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E458" s="5" t="n">
         <v>4.5</v>
@@ -10762,7 +10762,7 @@
         <v>21</v>
       </c>
       <c r="G458" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H458" s="5" t="n"/>
       <c r="I458" s="5" t="s"/>
@@ -10774,10 +10774,10 @@
         <v>105</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E459" s="5" t="n">
         <v>4.5</v>
@@ -10786,7 +10786,7 @@
         <v>21</v>
       </c>
       <c r="G459" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H459" s="5" t="n"/>
       <c r="I459" s="5" t="s"/>
@@ -10827,19 +10827,19 @@
         <v>108</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E462" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F462" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G462" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H462" s="5" t="n"/>
       <c r="I462" s="5" t="s"/>
@@ -10851,19 +10851,19 @@
         <v>108</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E463" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F463" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G463" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H463" s="5" t="n"/>
       <c r="I463" s="5" t="s"/>
@@ -10875,7 +10875,7 @@
         <v>108</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>164</v>
@@ -10899,7 +10899,7 @@
         <v>108</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>164</v>
@@ -10923,7 +10923,7 @@
         <v>108</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>164</v>
@@ -10947,7 +10947,7 @@
         <v>108</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>164</v>
@@ -10971,7 +10971,7 @@
         <v>108</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>164</v>
@@ -10995,19 +10995,19 @@
         <v>108</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E469" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F469" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G469" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H469" s="5" t="n"/>
       <c r="I469" s="5" t="s"/>
@@ -11019,19 +11019,19 @@
         <v>108</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E470" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F470" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G470" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H470" s="5" t="n"/>
       <c r="I470" s="5" t="s"/>
@@ -11043,10 +11043,10 @@
         <v>108</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E471" s="5" t="n">
         <v>4.5</v>
@@ -11055,7 +11055,7 @@
         <v>21</v>
       </c>
       <c r="G471" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H471" s="5" t="n"/>
       <c r="I471" s="5" t="s"/>
@@ -11096,19 +11096,19 @@
         <v>112</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E474" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F474" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G474" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H474" s="5" t="n"/>
       <c r="I474" s="5" t="s"/>
@@ -11120,7 +11120,7 @@
         <v>112</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>164</v>
@@ -11144,7 +11144,7 @@
         <v>112</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>164</v>
@@ -11168,7 +11168,7 @@
         <v>112</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>164</v>
@@ -11192,7 +11192,7 @@
         <v>112</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>164</v>
@@ -11216,7 +11216,7 @@
         <v>112</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>164</v>
@@ -11240,7 +11240,7 @@
         <v>112</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D480" s="5" t="s">
         <v>164</v>
@@ -11264,19 +11264,19 @@
         <v>112</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E481" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F481" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G481" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H481" s="5" t="n"/>
       <c r="I481" s="5" t="s"/>
@@ -11288,10 +11288,10 @@
         <v>112</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E482" s="5" t="n">
         <v>4.5</v>
@@ -11300,7 +11300,7 @@
         <v>21</v>
       </c>
       <c r="G482" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H482" s="5" t="n"/>
       <c r="I482" s="5" t="s"/>
@@ -11341,19 +11341,19 @@
         <v>173</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E485" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F485" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G485" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H485" s="5" t="n"/>
       <c r="I485" s="5" t="s"/>
@@ -11365,19 +11365,19 @@
         <v>173</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E486" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F486" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G486" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H486" s="5" t="n"/>
       <c r="I486" s="5" t="s"/>
@@ -11389,7 +11389,7 @@
         <v>173</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D487" s="5" t="s">
         <v>164</v>
@@ -11413,7 +11413,7 @@
         <v>173</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D488" s="5" t="s">
         <v>164</v>
@@ -11437,7 +11437,7 @@
         <v>173</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D489" s="5" t="s">
         <v>164</v>
@@ -11461,7 +11461,7 @@
         <v>173</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D490" s="5" t="s">
         <v>164</v>
@@ -11485,7 +11485,7 @@
         <v>173</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D491" s="5" t="s">
         <v>164</v>
@@ -11509,19 +11509,19 @@
         <v>173</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E492" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F492" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G492" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H492" s="5" t="n"/>
       <c r="I492" s="5" t="s"/>
@@ -11533,19 +11533,19 @@
         <v>173</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D493" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E493" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F493" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G493" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H493" s="5" t="n"/>
       <c r="I493" s="5" t="s"/>
@@ -11557,10 +11557,10 @@
         <v>173</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D494" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E494" s="5" t="n">
         <v>4.5</v>
@@ -11569,7 +11569,7 @@
         <v>21</v>
       </c>
       <c r="G494" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H494" s="5" t="n"/>
       <c r="I494" s="5" t="s"/>
@@ -11610,19 +11610,19 @@
         <v>174</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E497" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F497" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G497" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H497" s="5" t="n"/>
       <c r="I497" s="5" t="s"/>
@@ -11634,19 +11634,19 @@
         <v>174</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D498" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E498" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F498" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G498" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H498" s="5" t="n"/>
       <c r="I498" s="5" t="s"/>
@@ -11658,19 +11658,19 @@
         <v>174</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E499" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F499" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G499" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H499" s="5" t="n"/>
       <c r="I499" s="5" t="s"/>
@@ -11682,7 +11682,7 @@
         <v>174</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D500" s="5" t="s">
         <v>164</v>
@@ -11706,7 +11706,7 @@
         <v>174</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D501" s="5" t="s">
         <v>164</v>
@@ -11730,19 +11730,19 @@
         <v>174</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E502" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F502" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G502" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H502" s="5" t="n"/>
       <c r="I502" s="5" t="s"/>
@@ -11754,19 +11754,19 @@
         <v>174</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D503" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E503" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F503" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G503" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H503" s="5" t="n"/>
       <c r="I503" s="5" t="s"/>
@@ -11778,19 +11778,19 @@
         <v>174</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D504" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E504" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F504" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G504" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H504" s="5" t="n"/>
       <c r="I504" s="5" t="s"/>
@@ -11802,10 +11802,10 @@
         <v>174</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D505" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E505" s="5" t="n">
         <v>4.5</v>
@@ -11814,7 +11814,7 @@
         <v>21</v>
       </c>
       <c r="G505" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H505" s="5" t="n"/>
       <c r="I505" s="5" t="s"/>
@@ -11826,10 +11826,10 @@
         <v>174</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D506" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E506" s="5" t="n">
         <v>4.5</v>
@@ -11838,7 +11838,7 @@
         <v>21</v>
       </c>
       <c r="G506" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H506" s="5" t="n"/>
       <c r="I506" s="5" t="s"/>
@@ -11850,10 +11850,10 @@
         <v>174</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="D507" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E507" s="5" t="n">
         <v>4.5</v>
@@ -11862,7 +11862,7 @@
         <v>21</v>
       </c>
       <c r="G507" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H507" s="5" t="n"/>
       <c r="I507" s="5" t="s"/>
@@ -11891,7 +11891,7 @@
         <v>21</v>
       </c>
       <c r="G509" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H509" s="5" t="n"/>
       <c r="I509" s="5" t="s"/>
@@ -11903,19 +11903,19 @@
         <v>177</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D510" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E510" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F510" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G510" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H510" s="5" t="n"/>
       <c r="I510" s="5" t="s"/>
@@ -11927,10 +11927,10 @@
         <v>177</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D511" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E511" s="5" t="n">
         <v>4.5</v>
@@ -11939,7 +11939,7 @@
         <v>21</v>
       </c>
       <c r="G511" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H511" s="5" t="n"/>
       <c r="I511" s="5" t="s"/>
@@ -11951,19 +11951,19 @@
         <v>177</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D512" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E512" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F512" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G512" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H512" s="5" t="n"/>
       <c r="I512" s="5" t="s"/>
@@ -11975,19 +11975,19 @@
         <v>177</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D513" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E513" s="5" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F513" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G513" s="5" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="H513" s="5" t="n"/>
       <c r="I513" s="5" t="s"/>
@@ -11999,10 +11999,10 @@
         <v>177</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D514" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E514" s="5" t="n">
         <v>4.5</v>
@@ -12011,7 +12011,7 @@
         <v>21</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H514" s="5" t="n"/>
       <c r="I514" s="5" t="s"/>
@@ -12023,19 +12023,19 @@
         <v>177</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D515" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E515" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F515" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H515" s="5" t="n"/>
       <c r="I515" s="5" t="s"/>
@@ -12047,19 +12047,19 @@
         <v>177</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D516" s="5" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E516" s="5" t="n">
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="F516" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G516" s="5" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H516" s="5" t="n"/>
       <c r="I516" s="5" t="s"/>
@@ -12071,10 +12071,10 @@
         <v>177</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D517" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E517" s="5" t="n">
         <v>4.5</v>
@@ -12083,7 +12083,7 @@
         <v>21</v>
       </c>
       <c r="G517" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H517" s="5" t="n"/>
       <c r="I517" s="5" t="s"/>
@@ -12095,10 +12095,10 @@
         <v>177</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D518" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E518" s="5" t="n">
         <v>4.5</v>
@@ -12107,7 +12107,7 @@
         <v>21</v>
       </c>
       <c r="G518" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H518" s="5" t="n"/>
       <c r="I518" s="5" t="s"/>
@@ -12119,10 +12119,10 @@
         <v>177</v>
       </c>
       <c r="C519" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D519" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E519" s="5" t="n">
         <v>4.5</v>
@@ -12131,7 +12131,7 @@
         <v>21</v>
       </c>
       <c r="G519" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H519" s="5" t="n"/>
       <c r="I519" s="5" t="s"/>
@@ -12143,10 +12143,10 @@
         <v>177</v>
       </c>
       <c r="C520" s="5" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="D520" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E520" s="5" t="n">
         <v>4.5</v>
@@ -12155,7 +12155,7 @@
         <v>21</v>
       </c>
       <c r="G520" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H520" s="5" t="n"/>
       <c r="I520" s="5" t="s"/>
@@ -12184,7 +12184,7 @@
         <v>21</v>
       </c>
       <c r="G522" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H522" s="5" t="n"/>
       <c r="I522" s="5" t="s"/>
@@ -12271,7 +12271,7 @@
         <v>27</v>
       </c>
       <c r="D526" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E526" s="5" t="n">
         <v>4.5</v>
@@ -12280,7 +12280,7 @@
         <v>21</v>
       </c>
       <c r="G526" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H526" s="5" t="n"/>
       <c r="I526" s="5" t="s"/>
@@ -12292,10 +12292,10 @@
         <v>180</v>
       </c>
       <c r="C527" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D527" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E527" s="5" t="n">
         <v>4.5</v>
@@ -12304,7 +12304,7 @@
         <v>21</v>
       </c>
       <c r="G527" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H527" s="5" t="n"/>
       <c r="I527" s="5" t="s"/>
@@ -12316,10 +12316,10 @@
         <v>180</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D528" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E528" s="5" t="n">
         <v>4.5</v>
@@ -12328,7 +12328,7 @@
         <v>21</v>
       </c>
       <c r="G528" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H528" s="5" t="n"/>
       <c r="I528" s="5" t="s"/>
@@ -12340,10 +12340,10 @@
         <v>180</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D529" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E529" s="5" t="n">
         <v>4.5</v>
@@ -12352,7 +12352,7 @@
         <v>21</v>
       </c>
       <c r="G529" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H529" s="5" t="n"/>
       <c r="I529" s="5" t="s"/>
@@ -12364,10 +12364,10 @@
         <v>180</v>
       </c>
       <c r="C530" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D530" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E530" s="5" t="n">
         <v>4.5</v>
@@ -12376,7 +12376,7 @@
         <v>21</v>
       </c>
       <c r="G530" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H530" s="5" t="n"/>
       <c r="I530" s="5" t="s"/>
@@ -12492,7 +12492,7 @@
         <v>27</v>
       </c>
       <c r="D536" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E536" s="5" t="n">
         <v>4.5</v>
@@ -12501,7 +12501,7 @@
         <v>21</v>
       </c>
       <c r="G536" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H536" s="5" t="n"/>
       <c r="I536" s="5" t="s"/>
@@ -12513,10 +12513,10 @@
         <v>181</v>
       </c>
       <c r="C537" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D537" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E537" s="5" t="n">
         <v>4.5</v>
@@ -12525,7 +12525,7 @@
         <v>21</v>
       </c>
       <c r="G537" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H537" s="5" t="n"/>
       <c r="I537" s="5" t="s"/>
@@ -12537,10 +12537,10 @@
         <v>181</v>
       </c>
       <c r="C538" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D538" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E538" s="5" t="n">
         <v>4.5</v>
@@ -12549,7 +12549,7 @@
         <v>21</v>
       </c>
       <c r="G538" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H538" s="5" t="n"/>
       <c r="I538" s="5" t="s"/>
@@ -12561,10 +12561,10 @@
         <v>181</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D539" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E539" s="5" t="n">
         <v>4.5</v>
@@ -12573,7 +12573,7 @@
         <v>21</v>
       </c>
       <c r="G539" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H539" s="5" t="n"/>
       <c r="I539" s="5" t="s"/>
@@ -12689,7 +12689,7 @@
         <v>27</v>
       </c>
       <c r="D545" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E545" s="5" t="n">
         <v>4.5</v>
@@ -12698,7 +12698,7 @@
         <v>21</v>
       </c>
       <c r="G545" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H545" s="5" t="n"/>
       <c r="I545" s="5" t="s"/>
@@ -12710,10 +12710,10 @@
         <v>184</v>
       </c>
       <c r="C546" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D546" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E546" s="5" t="n">
         <v>4.5</v>
@@ -12722,7 +12722,7 @@
         <v>21</v>
       </c>
       <c r="G546" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H546" s="5" t="n"/>
       <c r="I546" s="5" t="s"/>
@@ -12734,10 +12734,10 @@
         <v>184</v>
       </c>
       <c r="C547" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D547" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E547" s="5" t="n">
         <v>4.5</v>
@@ -12746,7 +12746,7 @@
         <v>21</v>
       </c>
       <c r="G547" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H547" s="5" t="n"/>
       <c r="I547" s="5" t="s"/>
@@ -12758,23 +12758,23 @@
         <v>184</v>
       </c>
       <c r="C548" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D548" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E548" s="5" t="n">
         <v>4.5</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G548" s="5" t="s">
         <v>185</v>
       </c>
       <c r="H548" s="5" t="n"/>
       <c r="I548" s="5" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J548" s="6" t="n">
         <v>41380</v>
@@ -12786,10 +12786,10 @@
         <v>184</v>
       </c>
       <c r="C549" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D549" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E549" s="5" t="n">
         <v>4.5</v>
@@ -12798,7 +12798,7 @@
         <v>21</v>
       </c>
       <c r="G549" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H549" s="5" t="n"/>
       <c r="I549" s="5" t="s"/>
@@ -12827,7 +12827,7 @@
         <v>21</v>
       </c>
       <c r="G551" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H551" s="5" t="n"/>
       <c r="I551" s="5" t="s"/>
@@ -12914,7 +12914,7 @@
         <v>27</v>
       </c>
       <c r="D555" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E555" s="5" t="n">
         <v>4.5</v>
@@ -12923,7 +12923,7 @@
         <v>21</v>
       </c>
       <c r="G555" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H555" s="5" t="n"/>
       <c r="I555" s="5" t="s"/>
@@ -12935,7 +12935,7 @@
         <v>186</v>
       </c>
       <c r="C556" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D556" s="5" t="s">
         <v>164</v>
@@ -12959,10 +12959,10 @@
         <v>186</v>
       </c>
       <c r="C557" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E557" s="5" t="n">
         <v>4.5</v>
@@ -12971,7 +12971,7 @@
         <v>21</v>
       </c>
       <c r="G557" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H557" s="5" t="n"/>
       <c r="I557" s="5" t="s"/>
@@ -12983,10 +12983,10 @@
         <v>186</v>
       </c>
       <c r="C558" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D558" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E558" s="5" t="n">
         <v>4.5</v>
@@ -12995,7 +12995,7 @@
         <v>21</v>
       </c>
       <c r="G558" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H558" s="5" t="n"/>
       <c r="I558" s="5" t="s"/>
@@ -13007,10 +13007,10 @@
         <v>186</v>
       </c>
       <c r="C559" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D559" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E559" s="5" t="n">
         <v>4.5</v>
@@ -13019,7 +13019,7 @@
         <v>21</v>
       </c>
       <c r="G559" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H559" s="5" t="n"/>
       <c r="I559" s="5" t="s"/>
@@ -13048,7 +13048,7 @@
         <v>21</v>
       </c>
       <c r="G561" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H561" s="5" t="n"/>
       <c r="I561" s="5" t="s"/>
@@ -13060,19 +13060,19 @@
         <v>187</v>
       </c>
       <c r="C562" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D562" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E562" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F562" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G562" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H562" s="5" t="n"/>
       <c r="I562" s="5" t="s"/>
@@ -13084,19 +13084,19 @@
         <v>187</v>
       </c>
       <c r="C563" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D563" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E563" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F563" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G563" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H563" s="5" t="n"/>
       <c r="I563" s="5" t="s"/>
@@ -13108,19 +13108,19 @@
         <v>187</v>
       </c>
       <c r="C564" s="5" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D564" s="5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E564" s="5" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="F564" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G564" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="H564" s="5" t="n"/>
       <c r="I564" s="5" t="s"/>
@@ -13132,10 +13132,10 @@
         <v>187</v>
       </c>
       <c r="C565" s="5" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E565" s="5" t="n">
         <v>4.5</v>
@@ -13144,7 +13144,7 @@
         <v>21</v>
       </c>
       <c r="G565" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H565" s="5" t="n"/>
       <c r="I565" s="5" t="s"/>
@@ -13156,10 +13156,10 @@
         <v>187</v>
       </c>
       <c r="C566" s="5" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E566" s="5" t="n">
         <v>4.5</v>
@@ -13168,7 +13168,7 @@
         <v>21</v>
       </c>
       <c r="G566" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H566" s="5" t="n"/>
       <c r="I566" s="5" t="s"/>
@@ -13180,10 +13180,10 @@
         <v>187</v>
       </c>
       <c r="C567" s="5" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E567" s="5" t="n">
         <v>4.5</v>
@@ -13192,7 +13192,7 @@
         <v>21</v>
       </c>
       <c r="G567" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H567" s="5" t="n"/>
       <c r="I567" s="5" t="s"/>
@@ -13204,10 +13204,10 @@
         <v>187</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E568" s="5" t="n">
         <v>4.5</v>
@@ -13216,7 +13216,7 @@
         <v>21</v>
       </c>
       <c r="G568" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H568" s="5" t="n"/>
       <c r="I568" s="5" t="s"/>
@@ -13228,19 +13228,19 @@
         <v>187</v>
       </c>
       <c r="C569" s="5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E569" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F569" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G569" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H569" s="5" t="n"/>
       <c r="I569" s="5" t="s"/>
@@ -13252,19 +13252,19 @@
         <v>187</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E570" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F570" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G570" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H570" s="5" t="n"/>
       <c r="I570" s="5" t="s"/>
@@ -13276,19 +13276,19 @@
         <v>187</v>
       </c>
       <c r="C571" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E571" s="5" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="F571" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G571" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H571" s="5" t="n"/>
       <c r="I571" s="5" t="s"/>
@@ -13300,10 +13300,10 @@
         <v>187</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E572" s="5" t="n">
         <v>4.5</v>
@@ -13312,7 +13312,7 @@
         <v>21</v>
       </c>
       <c r="G572" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H572" s="5" t="n"/>
       <c r="I572" s="5" t="s"/>
@@ -13324,10 +13324,10 @@
         <v>187</v>
       </c>
       <c r="C573" s="5" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E573" s="5" t="n">
         <v>4.5</v>
@@ -13336,7 +13336,7 @@
         <v>21</v>
       </c>
       <c r="G573" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H573" s="5" t="n"/>
       <c r="I573" s="5" t="s"/>
@@ -13348,10 +13348,10 @@
         <v>187</v>
       </c>
       <c r="C574" s="5" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="D574" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E574" s="5" t="n">
         <v>4.5</v>
@@ -13360,7 +13360,7 @@
         <v>21</v>
       </c>
       <c r="G574" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H574" s="5" t="n"/>
       <c r="I574" s="5" t="s"/>
@@ -13372,10 +13372,10 @@
         <v>187</v>
       </c>
       <c r="C575" s="5" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D575" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E575" s="5" t="n">
         <v>4.5</v>
@@ -13384,7 +13384,7 @@
         <v>21</v>
       </c>
       <c r="G575" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H575" s="5" t="n"/>
       <c r="I575" s="5" t="s"/>
@@ -13396,10 +13396,10 @@
         <v>187</v>
       </c>
       <c r="C576" s="5" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="D576" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E576" s="5" t="n">
         <v>4.5</v>
@@ -13408,7 +13408,7 @@
         <v>21</v>
       </c>
       <c r="G576" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H576" s="5" t="n"/>
       <c r="I576" s="5" t="s"/>
@@ -13612,7 +13612,7 @@
         <v>58</v>
       </c>
       <c r="C592" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D592" s="5" t="s">
         <v>144</v>
@@ -13636,7 +13636,7 @@
         <v>58</v>
       </c>
       <c r="C593" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D593" s="5" t="s">
         <v>194</v>
@@ -13785,7 +13785,7 @@
         <v>55</v>
       </c>
       <c r="C600" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D600" s="5" t="s">
         <v>144</v>
@@ -13809,7 +13809,7 @@
         <v>55</v>
       </c>
       <c r="C601" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D601" s="5" t="s">
         <v>144</v>
@@ -13833,7 +13833,7 @@
         <v>55</v>
       </c>
       <c r="C602" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D602" s="5" t="s">
         <v>196</v>
@@ -13898,7 +13898,7 @@
         <v>21</v>
       </c>
       <c r="G605" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H605" s="5" t="n"/>
       <c r="I605" s="5" t="s"/>
@@ -13922,7 +13922,7 @@
         <v>21</v>
       </c>
       <c r="G606" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H606" s="5" t="n"/>
       <c r="I606" s="5" t="s"/>
@@ -13946,7 +13946,7 @@
         <v>21</v>
       </c>
       <c r="G607" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H607" s="5" t="n"/>
       <c r="I607" s="5" t="s"/>
@@ -13970,7 +13970,7 @@
         <v>21</v>
       </c>
       <c r="G608" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H608" s="5" t="n"/>
       <c r="I608" s="5" t="s"/>
@@ -13982,7 +13982,7 @@
         <v>53</v>
       </c>
       <c r="C609" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D609" s="5" t="s">
         <v>199</v>
@@ -13994,7 +13994,7 @@
         <v>21</v>
       </c>
       <c r="G609" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H609" s="5" t="n"/>
       <c r="I609" s="5" t="s"/>
@@ -14006,7 +14006,7 @@
         <v>53</v>
       </c>
       <c r="C610" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D610" s="5" t="s">
         <v>29</v>
@@ -14232,7 +14232,7 @@
         <v>28</v>
       </c>
       <c r="C621" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D621" s="5" t="s">
         <v>29</v>
@@ -14345,7 +14345,7 @@
         <v>21</v>
       </c>
       <c r="G626" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H626" s="5" t="n"/>
       <c r="I626" s="5" t="s"/>
@@ -14369,7 +14369,7 @@
         <v>21</v>
       </c>
       <c r="G627" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H627" s="5" t="n"/>
       <c r="I627" s="5" t="s"/>
@@ -14381,7 +14381,7 @@
         <v>43</v>
       </c>
       <c r="C628" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D628" s="5" t="s">
         <v>199</v>
@@ -14393,7 +14393,7 @@
         <v>21</v>
       </c>
       <c r="G628" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H628" s="5" t="n"/>
       <c r="I628" s="5" t="s"/>
@@ -14405,7 +14405,7 @@
         <v>43</v>
       </c>
       <c r="C629" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D629" s="5" t="s">
         <v>199</v>
@@ -14417,7 +14417,7 @@
         <v>21</v>
       </c>
       <c r="G629" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H629" s="5" t="n"/>
       <c r="I629" s="5" t="s"/>
@@ -14429,7 +14429,7 @@
         <v>43</v>
       </c>
       <c r="C630" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D630" s="5" t="s">
         <v>199</v>
@@ -14441,7 +14441,7 @@
         <v>21</v>
       </c>
       <c r="G630" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H630" s="5" t="n"/>
       <c r="I630" s="5" t="s"/>
@@ -14453,7 +14453,7 @@
         <v>43</v>
       </c>
       <c r="C631" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D631" s="5" t="s">
         <v>199</v>
@@ -14465,7 +14465,7 @@
         <v>21</v>
       </c>
       <c r="G631" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H631" s="5" t="n"/>
       <c r="I631" s="5" t="s"/>
@@ -14684,7 +14684,7 @@
         <v>63</v>
       </c>
       <c r="C643" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D643" s="5" t="s">
         <v>59</v>
@@ -14708,7 +14708,7 @@
         <v>63</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D644" s="5" t="s">
         <v>59</v>
@@ -14975,7 +14975,7 @@
         <v>23</v>
       </c>
       <c r="D669" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E669" s="5" t="n">
         <v>30</v>
@@ -14984,7 +14984,7 @@
         <v>21</v>
       </c>
       <c r="G669" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H669" s="5" t="n"/>
       <c r="I669" s="5" t="s"/>
@@ -14999,7 +14999,7 @@
         <v>25</v>
       </c>
       <c r="D670" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E670" s="5" t="n">
         <v>30</v>
@@ -15008,7 +15008,7 @@
         <v>21</v>
       </c>
       <c r="G670" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H670" s="5" t="n"/>
       <c r="I670" s="5" t="s"/>
@@ -15023,7 +15023,7 @@
         <v>26</v>
       </c>
       <c r="D671" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E671" s="5" t="n">
         <v>30</v>
@@ -15032,7 +15032,7 @@
         <v>21</v>
       </c>
       <c r="G671" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H671" s="5" t="n"/>
       <c r="I671" s="5" t="s"/>
@@ -15076,7 +15076,7 @@
         <v>19</v>
       </c>
       <c r="D674" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E674" s="5" t="n">
         <v>30</v>
@@ -15085,7 +15085,7 @@
         <v>21</v>
       </c>
       <c r="G674" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H674" s="5" t="n"/>
       <c r="I674" s="5" t="s"/>
@@ -15100,7 +15100,7 @@
         <v>23</v>
       </c>
       <c r="D675" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E675" s="5" t="n">
         <v>30</v>
@@ -15109,7 +15109,7 @@
         <v>21</v>
       </c>
       <c r="G675" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H675" s="5" t="n"/>
       <c r="I675" s="5" t="s"/>
@@ -15124,7 +15124,7 @@
         <v>25</v>
       </c>
       <c r="D676" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E676" s="5" t="n">
         <v>30</v>
@@ -15133,7 +15133,7 @@
         <v>21</v>
       </c>
       <c r="G676" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H676" s="5" t="n"/>
       <c r="I676" s="5" t="s"/>
@@ -15148,7 +15148,7 @@
         <v>26</v>
       </c>
       <c r="D677" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E677" s="5" t="n">
         <v>30</v>
@@ -15157,7 +15157,7 @@
         <v>21</v>
       </c>
       <c r="G677" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H677" s="5" t="n"/>
       <c r="I677" s="5" t="s"/>
@@ -15172,7 +15172,7 @@
         <v>27</v>
       </c>
       <c r="D678" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E678" s="5" t="n">
         <v>30</v>
@@ -15181,7 +15181,7 @@
         <v>21</v>
       </c>
       <c r="G678" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H678" s="5" t="n"/>
       <c r="I678" s="5" t="s"/>
@@ -15193,7 +15193,7 @@
         <v>43</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D679" s="5" t="s">
         <v>215</v>
@@ -15263,7 +15263,7 @@
         <v>21</v>
       </c>
       <c r="G683" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H683" s="5" t="n"/>
       <c r="I683" s="5" t="s"/>
@@ -15287,7 +15287,7 @@
         <v>21</v>
       </c>
       <c r="G684" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H684" s="5" t="n"/>
       <c r="I684" s="5" t="s"/>
@@ -15311,7 +15311,7 @@
         <v>21</v>
       </c>
       <c r="G685" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H685" s="5" t="n"/>
       <c r="I685" s="5" t="s"/>
@@ -15335,7 +15335,7 @@
         <v>21</v>
       </c>
       <c r="G686" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H686" s="5" t="n"/>
       <c r="I686" s="5" t="s"/>
@@ -15359,7 +15359,7 @@
         <v>21</v>
       </c>
       <c r="G687" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H687" s="5" t="n"/>
       <c r="I687" s="5" t="s"/>
@@ -15371,7 +15371,7 @@
         <v>48</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D688" s="5" t="s">
         <v>218</v>
@@ -15383,7 +15383,7 @@
         <v>21</v>
       </c>
       <c r="G688" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H688" s="5" t="n"/>
       <c r="I688" s="5" t="s"/>
@@ -15395,7 +15395,7 @@
         <v>48</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D689" s="5" t="s">
         <v>212</v>
@@ -15419,7 +15419,7 @@
         <v>48</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D690" s="5" t="s">
         <v>219</v>
@@ -15460,7 +15460,7 @@
         <v>21</v>
       </c>
       <c r="G692" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H692" s="5" t="n"/>
       <c r="I692" s="5" t="s"/>
@@ -15484,7 +15484,7 @@
         <v>21</v>
       </c>
       <c r="G693" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H693" s="5" t="n"/>
       <c r="I693" s="5" t="s"/>
@@ -15508,7 +15508,7 @@
         <v>21</v>
       </c>
       <c r="G694" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H694" s="5" t="n"/>
       <c r="I694" s="5" t="s"/>
@@ -15532,7 +15532,7 @@
         <v>21</v>
       </c>
       <c r="G695" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H695" s="5" t="n"/>
       <c r="I695" s="5" t="s"/>
@@ -15556,7 +15556,7 @@
         <v>21</v>
       </c>
       <c r="G696" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H696" s="5" t="n"/>
       <c r="I696" s="5" t="s"/>
@@ -15568,7 +15568,7 @@
         <v>50</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D697" s="5" t="s">
         <v>199</v>
@@ -15580,7 +15580,7 @@
         <v>21</v>
       </c>
       <c r="G697" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H697" s="5" t="n"/>
       <c r="I697" s="5" t="s"/>
@@ -15592,7 +15592,7 @@
         <v>50</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D698" s="5" t="s">
         <v>199</v>
@@ -15604,7 +15604,7 @@
         <v>21</v>
       </c>
       <c r="G698" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H698" s="5" t="n"/>
       <c r="I698" s="5" t="s"/>
@@ -15616,7 +15616,7 @@
         <v>50</v>
       </c>
       <c r="C699" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D699" s="5" t="s">
         <v>199</v>
@@ -15628,7 +15628,7 @@
         <v>21</v>
       </c>
       <c r="G699" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H699" s="5" t="n"/>
       <c r="I699" s="5" t="s"/>
@@ -15640,7 +15640,7 @@
         <v>50</v>
       </c>
       <c r="C700" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D700" s="5" t="s">
         <v>221</v>
@@ -15681,7 +15681,7 @@
         <v>21</v>
       </c>
       <c r="G702" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H702" s="5" t="n"/>
       <c r="I702" s="5" t="s"/>
@@ -15705,7 +15705,7 @@
         <v>21</v>
       </c>
       <c r="G703" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H703" s="5" t="n"/>
       <c r="I703" s="5" t="s"/>
@@ -15729,7 +15729,7 @@
         <v>21</v>
       </c>
       <c r="G704" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H704" s="5" t="n"/>
       <c r="I704" s="5" t="s"/>
@@ -15753,7 +15753,7 @@
         <v>21</v>
       </c>
       <c r="G705" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H705" s="5" t="n"/>
       <c r="I705" s="5" t="s"/>
@@ -15777,7 +15777,7 @@
         <v>21</v>
       </c>
       <c r="G706" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H706" s="5" t="n"/>
       <c r="I706" s="5" t="s"/>
@@ -15789,7 +15789,7 @@
         <v>53</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D707" s="5" t="s">
         <v>199</v>
@@ -15801,7 +15801,7 @@
         <v>21</v>
       </c>
       <c r="G707" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H707" s="5" t="n"/>
       <c r="I707" s="5" t="s"/>
@@ -15813,7 +15813,7 @@
         <v>53</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D708" s="5" t="s">
         <v>199</v>
@@ -15825,7 +15825,7 @@
         <v>21</v>
       </c>
       <c r="G708" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H708" s="5" t="n"/>
       <c r="I708" s="5" t="s"/>
@@ -15837,7 +15837,7 @@
         <v>53</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D709" s="5" t="s">
         <v>199</v>
@@ -15849,7 +15849,7 @@
         <v>21</v>
       </c>
       <c r="G709" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H709" s="5" t="n"/>
       <c r="I709" s="5" t="s"/>
@@ -15861,7 +15861,7 @@
         <v>53</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D710" s="5" t="s">
         <v>223</v>
@@ -15902,7 +15902,7 @@
         <v>21</v>
       </c>
       <c r="G712" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H712" s="5" t="n"/>
       <c r="I712" s="5" t="s"/>
@@ -15926,7 +15926,7 @@
         <v>21</v>
       </c>
       <c r="G713" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H713" s="5" t="n"/>
       <c r="I713" s="5" t="s"/>
@@ -15950,7 +15950,7 @@
         <v>21</v>
       </c>
       <c r="G714" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H714" s="5" t="n"/>
       <c r="I714" s="5" t="s"/>
@@ -15974,7 +15974,7 @@
         <v>21</v>
       </c>
       <c r="G715" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H715" s="5" t="n"/>
       <c r="I715" s="5" t="s"/>
@@ -15998,7 +15998,7 @@
         <v>21</v>
       </c>
       <c r="G716" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H716" s="5" t="n"/>
       <c r="I716" s="5" t="s"/>
@@ -16010,7 +16010,7 @@
         <v>55</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D717" s="5" t="s">
         <v>199</v>
@@ -16022,7 +16022,7 @@
         <v>21</v>
       </c>
       <c r="G717" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H717" s="5" t="n"/>
       <c r="I717" s="5" t="s"/>
@@ -16034,7 +16034,7 @@
         <v>55</v>
       </c>
       <c r="C718" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D718" s="5" t="s">
         <v>199</v>
@@ -16046,7 +16046,7 @@
         <v>21</v>
       </c>
       <c r="G718" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H718" s="5" t="n"/>
       <c r="I718" s="5" t="s"/>
@@ -16058,7 +16058,7 @@
         <v>55</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D719" s="5" t="s">
         <v>199</v>
@@ -16070,7 +16070,7 @@
         <v>21</v>
       </c>
       <c r="G719" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H719" s="5" t="n"/>
       <c r="I719" s="5" t="s"/>
@@ -16082,7 +16082,7 @@
         <v>55</v>
       </c>
       <c r="C720" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D720" s="5" t="s">
         <v>224</v>
@@ -16231,7 +16231,7 @@
         <v>63</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D727" s="5" t="s">
         <v>59</v>
@@ -16255,7 +16255,7 @@
         <v>63</v>
       </c>
       <c r="C728" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D728" s="5" t="s">
         <v>225</v>
@@ -16287,7 +16287,7 @@
         <v>19</v>
       </c>
       <c r="D730" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E730" s="5" t="n">
         <v>40</v>
@@ -16296,7 +16296,7 @@
         <v>21</v>
       </c>
       <c r="G730" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H730" s="5" t="n"/>
       <c r="I730" s="5" t="s"/>
@@ -16311,7 +16311,7 @@
         <v>23</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E731" s="5" t="n">
         <v>40</v>
@@ -16320,7 +16320,7 @@
         <v>21</v>
       </c>
       <c r="G731" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H731" s="5" t="n"/>
       <c r="I731" s="5" t="s"/>
@@ -16335,7 +16335,7 @@
         <v>25</v>
       </c>
       <c r="D732" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E732" s="5" t="n">
         <v>40</v>
@@ -16344,7 +16344,7 @@
         <v>21</v>
       </c>
       <c r="G732" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H732" s="5" t="n"/>
       <c r="I732" s="5" t="s"/>
@@ -16359,7 +16359,7 @@
         <v>26</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E733" s="5" t="n">
         <v>40</v>
@@ -16368,7 +16368,7 @@
         <v>21</v>
       </c>
       <c r="G733" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H733" s="5" t="n"/>
       <c r="I733" s="5" t="s"/>
@@ -16383,7 +16383,7 @@
         <v>27</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E734" s="5" t="n">
         <v>40</v>
@@ -16392,7 +16392,7 @@
         <v>21</v>
       </c>
       <c r="G734" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H734" s="5" t="n"/>
       <c r="I734" s="5" t="s"/>
@@ -16404,10 +16404,10 @@
         <v>58</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E735" s="5" t="n">
         <v>40</v>
@@ -16416,7 +16416,7 @@
         <v>21</v>
       </c>
       <c r="G735" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H735" s="5" t="n"/>
       <c r="I735" s="5" t="s"/>
@@ -16428,10 +16428,10 @@
         <v>58</v>
       </c>
       <c r="C736" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E736" s="5" t="n">
         <v>40</v>
@@ -16440,7 +16440,7 @@
         <v>21</v>
       </c>
       <c r="G736" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H736" s="5" t="n"/>
       <c r="I736" s="5" t="s"/>
@@ -16452,10 +16452,10 @@
         <v>58</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E737" s="5" t="n">
         <v>40</v>
@@ -16464,7 +16464,7 @@
         <v>21</v>
       </c>
       <c r="G737" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H737" s="5" t="n"/>
       <c r="I737" s="5" t="s"/>
@@ -16476,7 +16476,7 @@
         <v>58</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D738" s="5" t="s">
         <v>226</v>
@@ -16623,7 +16623,7 @@
         <v>21</v>
       </c>
       <c r="G746" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H746" s="5" t="n"/>
       <c r="I746" s="5" t="s"/>
@@ -16647,7 +16647,7 @@
         <v>21</v>
       </c>
       <c r="G747" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H747" s="5" t="n"/>
       <c r="I747" s="5" t="s"/>
@@ -16671,7 +16671,7 @@
         <v>21</v>
       </c>
       <c r="G748" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H748" s="5" t="n"/>
       <c r="I748" s="5" t="s"/>
@@ -16695,7 +16695,7 @@
         <v>21</v>
       </c>
       <c r="G749" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H749" s="5" t="n"/>
       <c r="I749" s="5" t="s"/>
@@ -16707,7 +16707,7 @@
         <v>72</v>
       </c>
       <c r="C750" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D750" s="5" t="s">
         <v>199</v>
@@ -16719,7 +16719,7 @@
         <v>21</v>
       </c>
       <c r="G750" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H750" s="5" t="n"/>
       <c r="I750" s="5" t="s"/>
@@ -16731,7 +16731,7 @@
         <v>72</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D751" s="5" t="s">
         <v>199</v>
@@ -16743,7 +16743,7 @@
         <v>21</v>
       </c>
       <c r="G751" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H751" s="5" t="n"/>
       <c r="I751" s="5" t="s"/>
@@ -16755,7 +16755,7 @@
         <v>72</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D752" s="5" t="s">
         <v>199</v>
@@ -16767,7 +16767,7 @@
         <v>21</v>
       </c>
       <c r="G752" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H752" s="5" t="n"/>
       <c r="I752" s="5" t="s"/>
@@ -16779,7 +16779,7 @@
         <v>72</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D753" s="5" t="s">
         <v>233</v>
@@ -16844,7 +16844,7 @@
         <v>21</v>
       </c>
       <c r="G756" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H756" s="5" t="n"/>
       <c r="I756" s="5" t="s"/>
@@ -16868,7 +16868,7 @@
         <v>21</v>
       </c>
       <c r="G757" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H757" s="5" t="n"/>
       <c r="I757" s="5" t="s"/>
@@ -16892,7 +16892,7 @@
         <v>21</v>
       </c>
       <c r="G758" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H758" s="5" t="n"/>
       <c r="I758" s="5" t="s"/>
@@ -16916,7 +16916,7 @@
         <v>21</v>
       </c>
       <c r="G759" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H759" s="5" t="n"/>
       <c r="I759" s="5" t="s"/>
@@ -16928,7 +16928,7 @@
         <v>73</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D760" s="5" t="s">
         <v>199</v>
@@ -16940,7 +16940,7 @@
         <v>21</v>
       </c>
       <c r="G760" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H760" s="5" t="n"/>
       <c r="I760" s="5" t="s"/>
@@ -16952,7 +16952,7 @@
         <v>73</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D761" s="5" t="s">
         <v>199</v>
@@ -16964,7 +16964,7 @@
         <v>21</v>
       </c>
       <c r="G761" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H761" s="5" t="n"/>
       <c r="I761" s="5" t="s"/>
@@ -16976,7 +16976,7 @@
         <v>73</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D762" s="5" t="s">
         <v>199</v>
@@ -16988,7 +16988,7 @@
         <v>21</v>
       </c>
       <c r="G762" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H762" s="5" t="n"/>
       <c r="I762" s="5" t="s"/>
@@ -17000,7 +17000,7 @@
         <v>73</v>
       </c>
       <c r="C763" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D763" s="5" t="s">
         <v>237</v>
@@ -17065,7 +17065,7 @@
         <v>21</v>
       </c>
       <c r="G766" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H766" s="5" t="n"/>
       <c r="I766" s="5" t="s"/>
@@ -17089,7 +17089,7 @@
         <v>21</v>
       </c>
       <c r="G767" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H767" s="5" t="n"/>
       <c r="I767" s="5" t="s"/>
@@ -17113,7 +17113,7 @@
         <v>21</v>
       </c>
       <c r="G768" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H768" s="5" t="n"/>
       <c r="I768" s="5" t="s"/>
@@ -17137,7 +17137,7 @@
         <v>21</v>
       </c>
       <c r="G769" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H769" s="5" t="n"/>
       <c r="I769" s="5" t="s"/>
@@ -17149,7 +17149,7 @@
         <v>74</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D770" s="5" t="s">
         <v>199</v>
@@ -17161,7 +17161,7 @@
         <v>21</v>
       </c>
       <c r="G770" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H770" s="5" t="n"/>
       <c r="I770" s="5" t="s"/>
@@ -17173,7 +17173,7 @@
         <v>74</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D771" s="5" t="s">
         <v>199</v>
@@ -17185,7 +17185,7 @@
         <v>21</v>
       </c>
       <c r="G771" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H771" s="5" t="n"/>
       <c r="I771" s="5" t="s"/>
@@ -17197,7 +17197,7 @@
         <v>74</v>
       </c>
       <c r="C772" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D772" s="5" t="s">
         <v>199</v>
@@ -17209,7 +17209,7 @@
         <v>21</v>
       </c>
       <c r="G772" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H772" s="5" t="n"/>
       <c r="I772" s="5" t="s"/>
@@ -17221,7 +17221,7 @@
         <v>74</v>
       </c>
       <c r="C773" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D773" s="5" t="s">
         <v>240</v>
@@ -17286,7 +17286,7 @@
         <v>21</v>
       </c>
       <c r="G776" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H776" s="5" t="n"/>
       <c r="I776" s="5" t="s"/>
@@ -17310,7 +17310,7 @@
         <v>21</v>
       </c>
       <c r="G777" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H777" s="5" t="n"/>
       <c r="I777" s="5" t="s"/>
@@ -17334,7 +17334,7 @@
         <v>21</v>
       </c>
       <c r="G778" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H778" s="5" t="n"/>
       <c r="I778" s="5" t="s"/>
@@ -17358,7 +17358,7 @@
         <v>21</v>
       </c>
       <c r="G779" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H779" s="5" t="n"/>
       <c r="I779" s="5" t="s"/>
@@ -17370,7 +17370,7 @@
         <v>79</v>
       </c>
       <c r="C780" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D780" s="5" t="s">
         <v>199</v>
@@ -17382,7 +17382,7 @@
         <v>21</v>
       </c>
       <c r="G780" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H780" s="5" t="n"/>
       <c r="I780" s="5" t="s"/>
@@ -17394,7 +17394,7 @@
         <v>79</v>
       </c>
       <c r="C781" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D781" s="5" t="s">
         <v>199</v>
@@ -17406,7 +17406,7 @@
         <v>21</v>
       </c>
       <c r="G781" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H781" s="5" t="n"/>
       <c r="I781" s="5" t="s"/>
@@ -17418,7 +17418,7 @@
         <v>79</v>
       </c>
       <c r="C782" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D782" s="5" t="s">
         <v>199</v>
@@ -17430,7 +17430,7 @@
         <v>21</v>
       </c>
       <c r="G782" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H782" s="5" t="n"/>
       <c r="I782" s="5" t="s"/>
@@ -17442,7 +17442,7 @@
         <v>79</v>
       </c>
       <c r="C783" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D783" s="5" t="s">
         <v>243</v>
@@ -17507,7 +17507,7 @@
         <v>21</v>
       </c>
       <c r="G786" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H786" s="5" t="n"/>
       <c r="I786" s="5" t="s"/>
@@ -17531,7 +17531,7 @@
         <v>21</v>
       </c>
       <c r="G787" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H787" s="5" t="n"/>
       <c r="I787" s="5" t="s"/>
@@ -17555,7 +17555,7 @@
         <v>21</v>
       </c>
       <c r="G788" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H788" s="5" t="n"/>
       <c r="I788" s="5" t="s"/>
@@ -17579,7 +17579,7 @@
         <v>21</v>
       </c>
       <c r="G789" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H789" s="5" t="n"/>
       <c r="I789" s="5" t="s"/>
@@ -17591,7 +17591,7 @@
         <v>83</v>
       </c>
       <c r="C790" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D790" s="5" t="s">
         <v>218</v>
@@ -17603,7 +17603,7 @@
         <v>21</v>
       </c>
       <c r="G790" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H790" s="5" t="n"/>
       <c r="I790" s="5" t="s"/>
@@ -17615,7 +17615,7 @@
         <v>83</v>
       </c>
       <c r="C791" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D791" s="5" t="s">
         <v>218</v>
@@ -17627,7 +17627,7 @@
         <v>21</v>
       </c>
       <c r="G791" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H791" s="5" t="n"/>
       <c r="I791" s="5" t="s"/>
@@ -17639,7 +17639,7 @@
         <v>83</v>
       </c>
       <c r="C792" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D792" s="5" t="s">
         <v>218</v>
@@ -17651,7 +17651,7 @@
         <v>21</v>
       </c>
       <c r="G792" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H792" s="5" t="n"/>
       <c r="I792" s="5" t="s"/>
@@ -17663,7 +17663,7 @@
         <v>83</v>
       </c>
       <c r="C793" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D793" s="5" t="s">
         <v>247</v>
@@ -17675,7 +17675,7 @@
         <v>21</v>
       </c>
       <c r="G793" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H793" s="5" t="n"/>
       <c r="I793" s="5" t="s"/>
@@ -17728,7 +17728,7 @@
         <v>21</v>
       </c>
       <c r="G796" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H796" s="5" t="n"/>
       <c r="I796" s="5" t="s"/>
@@ -17752,7 +17752,7 @@
         <v>21</v>
       </c>
       <c r="G797" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H797" s="5" t="n"/>
       <c r="I797" s="5" t="s"/>
@@ -17776,7 +17776,7 @@
         <v>21</v>
       </c>
       <c r="G798" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H798" s="5" t="n"/>
       <c r="I798" s="5" t="s"/>
@@ -17800,7 +17800,7 @@
         <v>21</v>
       </c>
       <c r="G799" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H799" s="5" t="n"/>
       <c r="I799" s="5" t="s"/>
@@ -17812,7 +17812,7 @@
         <v>87</v>
       </c>
       <c r="C800" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D800" s="5" t="s">
         <v>199</v>
@@ -17824,7 +17824,7 @@
         <v>21</v>
       </c>
       <c r="G800" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H800" s="5" t="n"/>
       <c r="I800" s="5" t="s"/>
@@ -17836,7 +17836,7 @@
         <v>87</v>
       </c>
       <c r="C801" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D801" s="5" t="s">
         <v>199</v>
@@ -17848,7 +17848,7 @@
         <v>21</v>
       </c>
       <c r="G801" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H801" s="5" t="n"/>
       <c r="I801" s="5" t="s"/>
@@ -17860,7 +17860,7 @@
         <v>87</v>
       </c>
       <c r="C802" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D802" s="5" t="s">
         <v>199</v>
@@ -17872,7 +17872,7 @@
         <v>21</v>
       </c>
       <c r="G802" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H802" s="5" t="n"/>
       <c r="I802" s="5" t="s"/>
@@ -17884,7 +17884,7 @@
         <v>87</v>
       </c>
       <c r="C803" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D803" s="5" t="s">
         <v>249</v>
@@ -17937,13 +17937,13 @@
         <v>92</v>
       </c>
       <c r="C806" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D806" s="5" t="s">
         <v>252</v>
       </c>
       <c r="E806" s="5" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F806" s="5" t="s">
         <v>21</v>
@@ -17961,19 +17961,19 @@
         <v>92</v>
       </c>
       <c r="C807" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D807" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E807" s="5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F807" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G807" s="5" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="H807" s="5" t="n"/>
       <c r="I807" s="5" t="s"/>
@@ -17985,19 +17985,19 @@
         <v>92</v>
       </c>
       <c r="C808" s="5" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D808" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E808" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G808" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="E808" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="F808" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G808" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H808" s="5" t="n"/>
       <c r="I808" s="5" t="s"/>
@@ -18009,19 +18009,19 @@
         <v>92</v>
       </c>
       <c r="C809" s="5" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="D809" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E809" s="5" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F809" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G809" s="5" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="H809" s="5" t="n"/>
       <c r="I809" s="5" t="s"/>
@@ -18033,19 +18033,19 @@
         <v>92</v>
       </c>
       <c r="C810" s="5" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D810" s="5" t="s">
         <v>258</v>
       </c>
       <c r="E810" s="5" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F810" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G810" s="5" t="s">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="H810" s="5" t="n"/>
       <c r="I810" s="5" t="s"/>
@@ -18057,19 +18057,19 @@
         <v>92</v>
       </c>
       <c r="C811" s="5" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="D811" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E811" s="5" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F811" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="H811" s="5" t="n"/>
       <c r="I811" s="5" t="s"/>
@@ -18081,19 +18081,19 @@
         <v>92</v>
       </c>
       <c r="C812" s="5" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="D812" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E812" s="5" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F812" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G812" s="5" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H812" s="5" t="n"/>
       <c r="I812" s="5" t="s"/>
@@ -18105,19 +18105,19 @@
         <v>92</v>
       </c>
       <c r="C813" s="5" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D813" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E813" s="5" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F813" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G813" s="5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H813" s="5" t="n"/>
       <c r="I813" s="5" t="s"/>
@@ -18129,19 +18129,19 @@
         <v>92</v>
       </c>
       <c r="C814" s="5" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="D814" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E814" s="5" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F814" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G814" s="5" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="H814" s="5" t="n"/>
       <c r="I814" s="5" t="s"/>
@@ -18153,19 +18153,19 @@
         <v>92</v>
       </c>
       <c r="C815" s="5" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="D815" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E815" s="5" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F815" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G815" s="5" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="H815" s="5" t="n"/>
       <c r="I815" s="5" t="s"/>
@@ -18177,19 +18177,19 @@
         <v>92</v>
       </c>
       <c r="C816" s="5" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="D816" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E816" s="5" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F816" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G816" s="5" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="H816" s="5" t="n"/>
       <c r="I816" s="5" t="s"/>
@@ -18201,19 +18201,19 @@
         <v>92</v>
       </c>
       <c r="C817" s="5" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="D817" s="5" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="E817" s="5" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F817" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G817" s="5" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="H817" s="5" t="n"/>
       <c r="I817" s="5" t="s"/>
@@ -18225,19 +18225,19 @@
         <v>92</v>
       </c>
       <c r="C818" s="5" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D818" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E818" s="5" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F818" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G818" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H818" s="5" t="n"/>
       <c r="I818" s="5" t="s"/>
@@ -18249,19 +18249,19 @@
         <v>92</v>
       </c>
       <c r="C819" s="5" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="D819" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E819" s="5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F819" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G819" s="5" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="H819" s="5" t="n"/>
       <c r="I819" s="5" t="s"/>
@@ -18273,19 +18273,19 @@
         <v>92</v>
       </c>
       <c r="C820" s="5" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="D820" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E820" s="5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F820" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G820" s="5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H820" s="5" t="n"/>
       <c r="I820" s="5" t="s"/>
@@ -18297,19 +18297,19 @@
         <v>92</v>
       </c>
       <c r="C821" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D821" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E821" s="5" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F821" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G821" s="5" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H821" s="5" t="n"/>
       <c r="I821" s="5" t="s"/>
@@ -18321,19 +18321,19 @@
         <v>92</v>
       </c>
       <c r="C822" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D822" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E822" s="5" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F822" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G822" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H822" s="5" t="n"/>
       <c r="I822" s="5" t="s"/>
@@ -18345,19 +18345,19 @@
         <v>92</v>
       </c>
       <c r="C823" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D823" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E823" s="5" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F823" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G823" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="H823" s="5" t="n"/>
       <c r="I823" s="5" t="s"/>
@@ -18369,19 +18369,19 @@
         <v>92</v>
       </c>
       <c r="C824" s="5" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="D824" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E824" s="5" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F824" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G824" s="5" t="s">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="H824" s="5" t="n"/>
       <c r="I824" s="5" t="s"/>
@@ -18393,19 +18393,19 @@
         <v>92</v>
       </c>
       <c r="C825" s="5" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="D825" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E825" s="5" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F825" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G825" s="5" t="s">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="H825" s="5" t="n"/>
       <c r="I825" s="5" t="s"/>
@@ -18417,19 +18417,19 @@
         <v>92</v>
       </c>
       <c r="C826" s="5" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="D826" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E826" s="5" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F826" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G826" s="5" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="H826" s="5" t="n"/>
       <c r="I826" s="5" t="s"/>
@@ -18441,19 +18441,19 @@
         <v>92</v>
       </c>
       <c r="C827" s="5" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="D827" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E827" s="5" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F827" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G827" s="5" t="s">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c r="H827" s="5" t="n"/>
       <c r="I827" s="5" t="s"/>
@@ -18465,19 +18465,19 @@
         <v>92</v>
       </c>
       <c r="C828" s="5" t="s">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D828" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E828" s="5" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F828" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G828" s="5" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="H828" s="5" t="n"/>
       <c r="I828" s="5" t="s"/>
@@ -18489,19 +18489,19 @@
         <v>92</v>
       </c>
       <c r="C829" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D829" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E829" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="D829" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E829" s="5" t="n">
-        <v>55</v>
-      </c>
       <c r="F829" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G829" s="5" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="H829" s="5" t="n"/>
       <c r="I829" s="5" t="s"/>
@@ -18513,19 +18513,19 @@
         <v>92</v>
       </c>
       <c r="C830" s="5" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="D830" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E830" s="5" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F830" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G830" s="5" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="H830" s="5" t="n"/>
       <c r="I830" s="5" t="s"/>
